--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -596,7 +596,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,12 +624,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -648,7 +642,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,52 +700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,28 +731,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -776,8 +748,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,18 +779,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -807,96 +794,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -904,90 +975,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +985,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1012,6 +1034,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,24 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1072,32 +1085,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1106,10 +1093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,137 +1105,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,9 +1255,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2230,10 +2214,10 @@
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2248,7 +2232,7 @@
       <c r="H20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>103</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2259,10 +2243,10 @@
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2288,10 +2272,10 @@
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2317,10 +2301,10 @@
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2346,10 +2330,10 @@
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2375,10 +2359,10 @@
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2404,10 +2388,10 @@
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2422,7 +2406,7 @@
       <c r="H26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>120</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -2433,7 +2417,7 @@
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2462,10 +2446,10 @@
       <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2483,7 +2467,7 @@
       <c r="H28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2491,10 +2475,10 @@
       <c r="A29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2520,10 +2504,10 @@
       <c r="A30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2541,7 +2525,7 @@
       <c r="H30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>136</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -2552,10 +2536,10 @@
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2573,7 +2557,7 @@
       <c r="H31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>141</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -2584,10 +2568,10 @@
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2605,7 +2589,7 @@
       <c r="H32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -2616,10 +2600,10 @@
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2637,7 +2621,7 @@
       <c r="H33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -2648,10 +2632,10 @@
       <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2677,10 +2661,10 @@
       <c r="A35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2698,7 +2682,7 @@
       <c r="H35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>156</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -2718,7 +2702,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="24" customHeight="1" outlineLevelRow="2"/>
